--- a/BackPropogationExcel.xlsx
+++ b/BackPropogationExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26111"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC6FA33E-48CF-4FD0-BD47-C011A6027DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5C65C1F-CEEA-4264-AD70-ED1CA59375CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3003,14 +3003,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -3030,7 +3030,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8924925" y="904875"/>
+          <a:off x="7848600" y="904875"/>
           <a:ext cx="962025" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartConnector">
@@ -3375,8 +3375,8 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>531410</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>607610</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>8171</xdr:rowOff>
     </xdr:to>
@@ -3404,8 +3404,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7981950" y="485775"/>
-          <a:ext cx="1083860" cy="474896"/>
+          <a:off x="7439025" y="485775"/>
+          <a:ext cx="550460" cy="474896"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3634,8 +3634,8 @@
       <xdr:rowOff>87079</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>531410</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>607610</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -3664,8 +3664,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7991475" y="1230079"/>
-          <a:ext cx="1074335" cy="627296"/>
+          <a:off x="7448550" y="1230079"/>
+          <a:ext cx="540935" cy="627296"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5619,8 +5619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="P15" sqref="A15:P15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
